--- a/ope.ed.gov/2012/criminal-offenses-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2012.xlsx
+++ b/ope.ed.gov/2012/criminal-offenses-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2012.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - On-campus Student Housing Facilities</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -451,52 +448,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2012.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>914.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>7.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -504,19 +543,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231420.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
-        <v>914.0</v>
+        <v>98.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -531,13 +570,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M3">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N3">
         <v>0.0</v>
@@ -551,19 +590,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B4">
-        <v>366793.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
-        <v>98.0</v>
+        <v>831.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -578,13 +617,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L4">
         <v>0.0</v>
       </c>
       <c s="1" r="M4">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="N4">
         <v>0.0</v>
@@ -598,19 +637,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>831.0</v>
+        <v>1759.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -619,7 +658,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J5">
         <v>0.0</v>
@@ -631,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N5">
         <v>0.0</v>
@@ -645,19 +684,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>1759.0</v>
+        <v>5186.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -692,19 +731,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>5186.0</v>
+        <v>8258.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -713,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J7">
         <v>0.0</v>
@@ -725,7 +764,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M7">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N7">
         <v>0.0</v>
@@ -739,19 +778,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231624.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
-        <v>8258.0</v>
+        <v>1519.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -769,10 +808,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M8">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N8">
         <v>0.0</v>
@@ -786,19 +825,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B9">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
-        <v>1519.0</v>
+        <v>993.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -816,7 +855,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M9">
         <v>0.0</v>
@@ -833,19 +872,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231970.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
-        <v>993.0</v>
+        <v>945.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -854,7 +893,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I10">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J10">
         <v>0.0</v>
@@ -863,7 +902,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L10">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M10">
         <v>0.0</v>
@@ -880,19 +919,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B11">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
-        <v>945.0</v>
+        <v>1510.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -901,7 +940,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J11">
         <v>0.0</v>
@@ -910,10 +949,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L11">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M11">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c s="1" r="N11">
         <v>0.0</v>
@@ -927,19 +966,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B12">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
-        <v>1510.0</v>
+        <v>32961.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -948,7 +987,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I12">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J12">
         <v>0.0</v>
@@ -957,16 +996,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L12">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M12">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N12">
         <v>0.0</v>
       </c>
       <c s="1" r="O12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -974,19 +1013,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
-        <v>32961.0</v>
+        <v>1080.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -995,7 +1034,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I13">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J13">
         <v>0.0</v>
@@ -1004,16 +1043,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L13">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M13">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="N13">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O13">
         <v>2.0</v>
-      </c>
-      <c s="1" r="M13">
-        <v>8.0</v>
-      </c>
-      <c s="1" r="N13">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O13">
-        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1021,19 +1060,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>1080.0</v>
+        <v>4765.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1042,7 +1081,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I14">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J14">
         <v>0.0</v>
@@ -1054,13 +1093,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M14">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="N14">
         <v>0.0</v>
       </c>
       <c s="1" r="O14">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -1068,19 +1107,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>4765.0</v>
+        <v>794.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1101,7 +1140,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M15">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N15">
         <v>0.0</v>
@@ -1115,19 +1154,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B16">
-        <v>232308.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>794.0</v>
+        <v>19927.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1136,7 +1175,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I16">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J16">
         <v>0.0</v>
@@ -1148,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M16">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N16">
         <v>0.0</v>
@@ -1165,13 +1204,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
         <v>19927.0</v>
@@ -1183,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I17">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J17">
         <v>0.0</v>
@@ -1195,7 +1234,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M17">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N17">
         <v>0.0</v>
@@ -1212,13 +1251,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
         <v>19927.0</v>
@@ -1259,13 +1298,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
         <v>19927.0</v>
@@ -1303,19 +1342,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232423.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>19927.0</v>
+        <v>74372.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1350,19 +1389,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>74372.0</v>
+        <v>4834.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1397,19 +1436,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>4834.0</v>
+        <v>2756.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1418,7 +1457,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I22">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J22">
         <v>0.0</v>
@@ -1427,10 +1466,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L22">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M22">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="N22">
         <v>0.0</v>
@@ -1444,19 +1483,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232609.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>2756.0</v>
+        <v>1791.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1465,7 +1504,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I23">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J23">
         <v>0.0</v>
@@ -1474,10 +1513,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L23">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M23">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N23">
         <v>0.0</v>
@@ -1491,19 +1530,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>1791.0</v>
+        <v>3702.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1512,7 +1551,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I24">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J24">
         <v>0.0</v>
@@ -1521,10 +1560,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L24">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M24">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N24">
         <v>0.0</v>
@@ -1538,19 +1577,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232706.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>3702.0</v>
+        <v>7100.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1559,25 +1598,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I25">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="J25">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K25">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L25">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="M25">
+        <v>23.0</v>
+      </c>
+      <c s="1" r="N25">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O25">
         <v>3.0</v>
-      </c>
-      <c s="1" r="J25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L25">
-        <v>2.0</v>
-      </c>
-      <c s="1" r="M25">
-        <v>3.0</v>
-      </c>
-      <c s="1" r="N25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O25">
-        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -1585,19 +1624,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232937.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>7100.0</v>
+        <v>24670.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1606,7 +1645,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I26">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J26">
         <v>0.0</v>
@@ -1615,16 +1654,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L26">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M26">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="N26">
         <v>0.0</v>
       </c>
       <c s="1" r="O26">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -1632,19 +1671,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232982.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>24670.0</v>
+        <v>9573.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -1653,25 +1692,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I27">
+        <v>4.0</v>
+      </c>
+      <c s="1" r="J27">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K27">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L27">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="M27">
         <v>5.0</v>
       </c>
-      <c s="1" r="J27">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K27">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L27">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M27">
-        <v>12.0</v>
-      </c>
       <c s="1" r="N27">
         <v>0.0</v>
       </c>
       <c s="1" r="O27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -1679,19 +1718,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B28">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>9573.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1700,7 +1739,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I28">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J28">
         <v>0.0</v>
@@ -1709,16 +1748,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L28">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M28">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="N28">
         <v>0.0</v>
       </c>
       <c s="1" r="O28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1726,19 +1765,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B29">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>645.0</v>
+        <v>1312.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1747,7 +1786,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I29">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="J29">
         <v>0.0</v>
@@ -1756,10 +1795,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L29">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M29">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N29">
         <v>0.0</v>
@@ -1773,19 +1812,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233295.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>1312.0</v>
+        <v>5635.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1794,7 +1833,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I30">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J30">
         <v>0.0</v>
@@ -1806,7 +1845,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M30">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N30">
         <v>0.0</v>
@@ -1820,19 +1859,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>5635.0</v>
+        <v>1532.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -1841,7 +1880,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I31">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J31">
         <v>0.0</v>
@@ -1853,7 +1892,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M31">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N31">
         <v>0.0</v>
@@ -1867,19 +1906,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B32">
-        <v>233338.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>1532.0</v>
+        <v>2060.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -1888,7 +1927,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I32">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J32">
         <v>0.0</v>
@@ -1900,7 +1939,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M32">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N32">
         <v>0.0</v>
@@ -1914,19 +1953,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233426.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>2060.0</v>
+        <v>4176.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -1935,7 +1974,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I33">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="J33">
         <v>0.0</v>
@@ -1947,13 +1986,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M33">
-        <v>4.0</v>
+        <v>103.0</v>
       </c>
       <c s="1" r="N33">
         <v>0.0</v>
       </c>
       <c s="1" r="O33">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -1961,19 +2000,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233541.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>4176.0</v>
+        <v>730.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -1982,7 +2021,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I34">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J34">
         <v>0.0</v>
@@ -1994,13 +2033,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M34">
-        <v>103.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N34">
         <v>0.0</v>
       </c>
       <c s="1" r="O34">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -2008,19 +2047,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233611.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>730.0</v>
+        <v>739.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2041,7 +2080,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M35">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N35">
         <v>0.0</v>
@@ -2055,19 +2094,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B36">
-        <v>233718.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>739.0</v>
+        <v>2420.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2076,7 +2115,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I36">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J36">
         <v>0.0</v>
@@ -2088,7 +2127,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M36">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="N36">
         <v>0.0</v>
@@ -2102,19 +2141,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B37">
-        <v>233897.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>2420.0</v>
+        <v>211.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2123,7 +2162,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I37">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J37">
         <v>0.0</v>
@@ -2135,7 +2174,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M37">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N37">
         <v>0.0</v>
@@ -2149,19 +2188,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>211.0</v>
+        <v>5093.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2170,7 +2209,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I38">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J38">
         <v>0.0</v>
@@ -2182,13 +2221,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M38">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N38">
         <v>0.0</v>
       </c>
       <c s="1" r="O38">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
@@ -2196,19 +2235,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B39">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>5093.0</v>
+        <v>4361.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2217,7 +2256,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I39">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="J39">
         <v>0.0</v>
@@ -2229,13 +2268,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M39">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c s="1" r="N39">
         <v>0.0</v>
       </c>
       <c s="1" r="O39">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -2243,19 +2282,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B40">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>4361.0</v>
+        <v>23907.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2276,7 +2315,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M40">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N40">
         <v>0.0</v>
@@ -2290,19 +2329,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B41">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
-        <v>23907.0</v>
+        <v>31445.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2311,7 +2350,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I41">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J41">
         <v>0.0</v>
@@ -2320,16 +2359,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L41">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M41">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="N41">
         <v>0.0</v>
       </c>
       <c s="1" r="O41">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -2340,13 +2379,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
         <v>31445.0</v>
@@ -2358,7 +2397,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I42">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J42">
         <v>0.0</v>
@@ -2367,16 +2406,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L42">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M42">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N42">
         <v>0.0</v>
       </c>
       <c s="1" r="O42">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -2384,29 +2423,29 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B43">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E43">
+        <v>98</v>
+      </c>
+      <c s="1" r="F43">
+        <v>496.0</v>
+      </c>
+      <c s="1" r="G43">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H43">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I43">
         <v>2.0</v>
       </c>
-      <c t="s" s="1" r="E43">
-        <v>97</v>
-      </c>
-      <c s="1" r="F43">
-        <v>31445.0</v>
-      </c>
-      <c s="1" r="G43">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H43">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I43">
-        <v>1.0</v>
-      </c>
       <c s="1" r="J43">
         <v>0.0</v>
       </c>
@@ -2417,7 +2456,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M43">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N43">
         <v>0.0</v>
@@ -2431,19 +2470,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B44">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
-        <v>496.0</v>
+        <v>1664.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -2452,7 +2491,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J44">
         <v>0.0</v>
@@ -2464,13 +2503,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M44">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c s="1" r="N44">
         <v>0.0</v>
       </c>
       <c s="1" r="O44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -2478,19 +2517,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B45">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>1664.0</v>
+        <v>31087.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2499,7 +2538,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="J45">
         <v>0.0</v>
@@ -2511,7 +2550,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M45">
-        <v>38.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="N45">
         <v>0.0</v>
@@ -2528,13 +2567,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
         <v>31087.0</v>
@@ -2546,7 +2585,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I46">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J46">
         <v>0.0</v>
@@ -2558,13 +2597,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M46">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N46">
         <v>0.0</v>
       </c>
       <c s="1" r="O46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -2575,13 +2614,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
         <v>31087.0</v>
@@ -2622,13 +2661,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
         <v>31087.0</v>
@@ -2669,13 +2708,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
         <v>31087.0</v>
@@ -2713,19 +2752,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B50">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>31087.0</v>
+        <v>6208.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -2734,25 +2773,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I50">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J50">
         <v>0.0</v>
       </c>
       <c s="1" r="K50">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L50">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M50">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N50">
         <v>0.0</v>
       </c>
       <c s="1" r="O50">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -2760,19 +2799,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B51">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>6208.0</v>
+        <v>1751.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2781,7 +2820,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I51">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J51">
         <v>0.0</v>
@@ -2790,16 +2829,16 @@
         <v>1.0</v>
       </c>
       <c s="1" r="L51">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M51">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="N51">
         <v>0.0</v>
       </c>
       <c s="1" r="O51">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -2807,19 +2846,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B52">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>1751.0</v>
+        <v>540.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2834,13 +2873,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K52">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L52">
         <v>0.0</v>
       </c>
       <c s="1" r="M52">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N52">
         <v>0.0</v>
@@ -2854,19 +2893,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B53">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>540.0</v>
+        <v>1431.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2875,7 +2914,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I53">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J53">
         <v>0.0</v>
@@ -2887,13 +2926,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M53">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N53">
         <v>0.0</v>
       </c>
       <c s="1" r="O53">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -2901,19 +2940,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B54">
-        <v>234173.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>1431.0</v>
+        <v>2302.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -2922,25 +2961,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I54">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="J54">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K54">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L54">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M54">
         <v>3.0</v>
       </c>
-      <c s="1" r="J54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M54">
-        <v>1.0</v>
-      </c>
       <c s="1" r="N54">
         <v>0.0</v>
       </c>
       <c s="1" r="O54">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -2948,19 +2987,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B55">
-        <v>234207.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
-        <v>2302.0</v>
+        <v>151.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -2981,59 +3020,12 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M55">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N55">
         <v>0.0</v>
       </c>
       <c s="1" r="O55">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c s="1" r="A56">
-        <v>2012.0</v>
-      </c>
-      <c s="1" r="B56">
-        <v>234359.0</v>
-      </c>
-      <c t="s" s="1" r="C56">
-        <v>122</v>
-      </c>
-      <c s="1" r="D56">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E56">
-        <v>123</v>
-      </c>
-      <c s="1" r="F56">
-        <v>151.0</v>
-      </c>
-      <c s="1" r="G56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I56">
-        <v>2.0</v>
-      </c>
-      <c s="1" r="J56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O56">
         <v>0.0</v>
       </c>
     </row>
